--- a/config/xlsx/strtab.xlsx
+++ b/config/xlsx/strtab.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刷新需要10000铜钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>入阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,11 +234,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英勇打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新需要$1铜钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑刃乱舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C56" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C64" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C64">
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="3">
@@ -637,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -810,7 +842,7 @@
         <v>20016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2"/>
     </row>
@@ -819,7 +851,7 @@
         <v>20017</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -828,7 +860,7 @@
         <v>20018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -837,7 +869,7 @@
         <v>20019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -1127,10 +1159,10 @@
         <v>50001</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1138,18 +1170,90 @@
         <v>50002</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
+        <v>50003</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>50004</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>50005</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>50006</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>50007</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>50008</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>50009</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>50010</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
         <v>100001</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
